--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2064755.876534031</v>
+        <v>2062868.295017629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>199.0144435433492</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4619742408231</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.772345218456</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>149.1149290617441</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656423316</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>242.7378581659487</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.4550179536795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.31590541686257</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>95.01254123836608</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22625972775879</v>
+        <v>166.1848299532894</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.8088962735152</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>39.11561436815826</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>174.7430637258764</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>122.5264189150282</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.40666873704792</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>181.9834643821997</v>
+        <v>59.77945773664888</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>76.90718818968421</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>192.4127409203763</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789667</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1873.842488573869</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1504.879971633457</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.614273026707</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1146.614273026707</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>735.6283682370995</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>494.9239552794803</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>487.9784545302768</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2491.499261082307</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.033502821228</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.894170845416</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>1113.815367894323</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.815367894323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.0227887507926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5364,19 +5364,19 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.603879777666</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2037.143944996363</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.191957718143</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>1241.191957718143</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>951.7747876811821</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,34 +5525,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>2298.964529638817</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.382031897786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.253393111344</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="V19" t="n">
-        <v>1037.253393111344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>747.8362230743836</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>747.8362230743836</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.002216560966</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>731.317728355079</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181184</v>
+        <v>662.3181469663896</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181182</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181182</v>
+        <v>434.3285960683722</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514093</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.696422630596</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="C25" t="n">
-        <v>268.7602397026891</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V25" t="n">
-        <v>955.103143565574</v>
+        <v>614.6238123952643</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286133</v>
+        <v>325.2066423583037</v>
       </c>
       <c r="X25" t="n">
-        <v>437.696422630596</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.696422630596</v>
+        <v>97.21709146028633</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.2468244550146</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550146</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V28" t="n">
-        <v>1315.094589363762</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W28" t="n">
-        <v>1025.677419326802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>797.6878684287842</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>576.8952892852542</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,34 +6476,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049856</v>
+        <v>494.8466681110239</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584495</v>
+        <v>381.6713504644878</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274846</v>
+        <v>287.3155763335229</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264622</v>
+        <v>287.3155763335229</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.586064363898</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.662441439381</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>997.0061366837915</v>
+        <v>957.9946671386983</v>
       </c>
       <c r="X31" t="n">
-        <v>824.777451067145</v>
+        <v>785.7659815220518</v>
       </c>
       <c r="Y31" t="n">
-        <v>659.7457372049856</v>
+        <v>620.7342676598927</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841092</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861691</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
         <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,28 +7163,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7242,31 +7242,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7330,16 +7330,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,13 +7433,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7479,37 +7479,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,22 +7731,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.04402060665494</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013101247</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.296688329925</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711638</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>32.92248665775574</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.88923345256674</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359266</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.1031356539325</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>28.12263706262929</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.5104570982249</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.0110926708186</v>
+        <v>120.052522445288</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>50.73866478487403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.0220289556697</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.088916456060872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>163.9965794215628</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>124.2088042811644</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>192.3581855871794</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>70.15417894162829</v>
+        <v>192.3581855871791</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>13.31060320468989</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>38.62135484964404</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883916</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="K2" t="n">
-        <v>528868.7785488506</v>
+        <v>528868.7785488522</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007496</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007498</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600744</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007543</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732793</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="N4" t="n">
-        <v>30335.51889732803</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820906</v>
+        <v>-287066.8555820908</v>
       </c>
       <c r="C6" t="n">
-        <v>302901.0236324542</v>
+        <v>302901.023632454</v>
       </c>
       <c r="D6" t="n">
         <v>302901.0236324545</v>
       </c>
       <c r="E6" t="n">
-        <v>-116726.3164225985</v>
+        <v>-116823.7755485708</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542974</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542974</v>
+        <v>408336.2609283249</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542975</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542975</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617044</v>
+        <v>231913.0417357323</v>
       </c>
       <c r="K6" t="n">
-        <v>361996.6105455782</v>
+        <v>361978.1168076454</v>
       </c>
       <c r="L6" t="n">
-        <v>395283.6188935642</v>
+        <v>395283.6188935645</v>
       </c>
       <c r="M6" t="n">
         <v>270825.5104605939</v>
       </c>
       <c r="N6" t="n">
-        <v>405626.5256944309</v>
+        <v>405626.5256944311</v>
       </c>
       <c r="O6" t="n">
-        <v>405626.525694431</v>
+        <v>405626.5256944312</v>
       </c>
       <c r="P6" t="n">
         <v>361463.9203915853</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26747,34 +26747,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>214.7697264774457</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.269126437645923</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>11.99007165458411</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.011824802339</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>200.1260396556689</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674047</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>8.486309342340633</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373352</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>23.70481751979003</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.9938968421883</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>110.0570533917291</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>318.8310870635676</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>504.4912617279379</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303321</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>127.9022662376409</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426598</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099569</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146948</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>116.1356698477035</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502436</v>
@@ -38193,7 +38193,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
